--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tshb-Tshr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tshb-Tshr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.89241281524434</v>
+        <v>2.902273666666667</v>
       </c>
       <c r="H2">
-        <v>1.89241281524434</v>
+        <v>8.706821000000001</v>
       </c>
       <c r="I2">
-        <v>0.7895719123799826</v>
+        <v>0.7887169755909408</v>
       </c>
       <c r="J2">
-        <v>0.7895719123799826</v>
+        <v>0.7887169755909408</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.454662909998737</v>
+        <v>0.8749903333333333</v>
       </c>
       <c r="N2">
-        <v>0.454662909998737</v>
+        <v>2.624971</v>
       </c>
       <c r="O2">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="P2">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="Q2">
-        <v>0.8604099174978939</v>
+        <v>2.539461403021223</v>
       </c>
       <c r="R2">
-        <v>0.8604099174978939</v>
+        <v>22.855152627191</v>
       </c>
       <c r="S2">
-        <v>0.1681213051991791</v>
+        <v>0.2106282038936188</v>
       </c>
       <c r="T2">
-        <v>0.1681213051991791</v>
+        <v>0.2106282038936188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.89241281524434</v>
+        <v>2.902273666666667</v>
       </c>
       <c r="H3">
-        <v>1.89241281524434</v>
+        <v>8.706821000000001</v>
       </c>
       <c r="I3">
-        <v>0.7895719123799826</v>
+        <v>0.7887169755909408</v>
       </c>
       <c r="J3">
-        <v>0.7895719123799826</v>
+        <v>0.7887169755909408</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.74516466488891</v>
+        <v>0.8147036666666666</v>
       </c>
       <c r="N3">
-        <v>0.74516466488891</v>
+        <v>2.444111</v>
       </c>
       <c r="O3">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="P3">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="Q3">
-        <v>1.410159161303027</v>
+        <v>2.364492997903445</v>
       </c>
       <c r="R3">
-        <v>1.410159161303027</v>
+        <v>21.280436981131</v>
       </c>
       <c r="S3">
-        <v>0.2755405230872703</v>
+        <v>0.196115960917906</v>
       </c>
       <c r="T3">
-        <v>0.2755405230872703</v>
+        <v>0.196115960917906</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.89241281524434</v>
+        <v>2.902273666666667</v>
       </c>
       <c r="H4">
-        <v>1.89241281524434</v>
+        <v>8.706821000000001</v>
       </c>
       <c r="I4">
-        <v>0.7895719123799826</v>
+        <v>0.7887169755909408</v>
       </c>
       <c r="J4">
-        <v>0.7895719123799826</v>
+        <v>0.7887169755909408</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.935470285848349</v>
+        <v>1.586789</v>
       </c>
       <c r="N4">
-        <v>0.935470285848349</v>
+        <v>4.760367</v>
       </c>
       <c r="O4">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="P4">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="Q4">
-        <v>1.770295957219702</v>
+        <v>4.605295929256334</v>
       </c>
       <c r="R4">
-        <v>1.770295957219702</v>
+        <v>41.447663363307</v>
       </c>
       <c r="S4">
-        <v>0.3459100840935332</v>
+        <v>0.381972810779416</v>
       </c>
       <c r="T4">
-        <v>0.3459100840935332</v>
+        <v>0.381972810779416</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.177318561101948</v>
+        <v>0.2047913333333333</v>
       </c>
       <c r="H5">
-        <v>0.177318561101948</v>
+        <v>0.614374</v>
       </c>
       <c r="I5">
-        <v>0.07398267136108722</v>
+        <v>0.05565374585761078</v>
       </c>
       <c r="J5">
-        <v>0.07398267136108722</v>
+        <v>0.05565374585761078</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.454662909998737</v>
+        <v>0.8749903333333333</v>
       </c>
       <c r="N5">
-        <v>0.454662909998737</v>
+        <v>2.624971</v>
       </c>
       <c r="O5">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="P5">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="Q5">
-        <v>0.08062017298740053</v>
+        <v>0.1791904370171111</v>
       </c>
       <c r="R5">
-        <v>0.08062017298740053</v>
+        <v>1.612713933154</v>
       </c>
       <c r="S5">
-        <v>0.01575292012839747</v>
+        <v>0.01486242707171057</v>
       </c>
       <c r="T5">
-        <v>0.01575292012839747</v>
+        <v>0.01486242707171057</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.177318561101948</v>
+        <v>0.2047913333333333</v>
       </c>
       <c r="H6">
-        <v>0.177318561101948</v>
+        <v>0.614374</v>
       </c>
       <c r="I6">
-        <v>0.07398267136108722</v>
+        <v>0.05565374585761078</v>
       </c>
       <c r="J6">
-        <v>0.07398267136108722</v>
+        <v>0.05565374585761078</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.74516466488891</v>
+        <v>0.8147036666666666</v>
       </c>
       <c r="N6">
-        <v>0.74516466488891</v>
+        <v>2.444111</v>
       </c>
       <c r="O6">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="P6">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="Q6">
-        <v>0.1321315261621168</v>
+        <v>0.1668442501682222</v>
       </c>
       <c r="R6">
-        <v>0.1321315261621168</v>
+        <v>1.501598251514</v>
       </c>
       <c r="S6">
-        <v>0.02581807134549787</v>
+        <v>0.01383840868819717</v>
       </c>
       <c r="T6">
-        <v>0.02581807134549787</v>
+        <v>0.01383840868819716</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.177318561101948</v>
+        <v>0.2047913333333333</v>
       </c>
       <c r="H7">
-        <v>0.177318561101948</v>
+        <v>0.614374</v>
       </c>
       <c r="I7">
-        <v>0.07398267136108722</v>
+        <v>0.05565374585761078</v>
       </c>
       <c r="J7">
-        <v>0.07398267136108722</v>
+        <v>0.05565374585761078</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.935470285848349</v>
+        <v>1.586789</v>
       </c>
       <c r="N7">
-        <v>0.935470285848349</v>
+        <v>4.760367</v>
       </c>
       <c r="O7">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="P7">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="Q7">
-        <v>0.1658762450402572</v>
+        <v>0.3249606350286666</v>
       </c>
       <c r="R7">
-        <v>0.1658762450402572</v>
+        <v>2.924645715257999</v>
       </c>
       <c r="S7">
-        <v>0.03241167988719187</v>
+        <v>0.02695291009770304</v>
       </c>
       <c r="T7">
-        <v>0.03241167988719187</v>
+        <v>0.02695291009770304</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.327026646035863</v>
+        <v>0.5726753333333333</v>
       </c>
       <c r="H8">
-        <v>0.327026646035863</v>
+        <v>1.718026</v>
       </c>
       <c r="I8">
-        <v>0.1364454162589302</v>
+        <v>0.1556292785514485</v>
       </c>
       <c r="J8">
-        <v>0.1364454162589302</v>
+        <v>0.1556292785514485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.454662909998737</v>
+        <v>0.8749903333333333</v>
       </c>
       <c r="N8">
-        <v>0.454662909998737</v>
+        <v>2.624971</v>
       </c>
       <c r="O8">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="P8">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="Q8">
-        <v>0.1486868865337924</v>
+        <v>0.5010853808051111</v>
       </c>
       <c r="R8">
-        <v>0.1486868865337924</v>
+        <v>4.509768427246</v>
       </c>
       <c r="S8">
-        <v>0.02905293502747732</v>
+        <v>0.04156106236966837</v>
       </c>
       <c r="T8">
-        <v>0.02905293502747732</v>
+        <v>0.04156106236966836</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.327026646035863</v>
+        <v>0.5726753333333333</v>
       </c>
       <c r="H9">
-        <v>0.327026646035863</v>
+        <v>1.718026</v>
       </c>
       <c r="I9">
-        <v>0.1364454162589302</v>
+        <v>0.1556292785514485</v>
       </c>
       <c r="J9">
-        <v>0.1364454162589302</v>
+        <v>0.1556292785514485</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.74516466488891</v>
+        <v>0.8147036666666666</v>
       </c>
       <c r="N9">
-        <v>0.74516466488891</v>
+        <v>2.444111</v>
       </c>
       <c r="O9">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="P9">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="Q9">
-        <v>0.243688701103058</v>
+        <v>0.4665606938762222</v>
       </c>
       <c r="R9">
-        <v>0.243688701103058</v>
+        <v>4.199046244886</v>
       </c>
       <c r="S9">
-        <v>0.0476159812416842</v>
+        <v>0.03869751311896113</v>
       </c>
       <c r="T9">
-        <v>0.0476159812416842</v>
+        <v>0.03869751311896112</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.327026646035863</v>
+        <v>0.5726753333333333</v>
       </c>
       <c r="H10">
-        <v>0.327026646035863</v>
+        <v>1.718026</v>
       </c>
       <c r="I10">
-        <v>0.1364454162589302</v>
+        <v>0.1556292785514485</v>
       </c>
       <c r="J10">
-        <v>0.1364454162589302</v>
+        <v>0.1556292785514485</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.935470285848349</v>
+        <v>1.586789</v>
       </c>
       <c r="N10">
-        <v>0.935470285848349</v>
+        <v>4.760367</v>
       </c>
       <c r="O10">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="P10">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="Q10">
-        <v>0.3059237100471957</v>
+        <v>0.9087149195046665</v>
       </c>
       <c r="R10">
-        <v>0.3059237100471957</v>
+        <v>8.178434275541999</v>
       </c>
       <c r="S10">
-        <v>0.05977649998976872</v>
+        <v>0.07537070306281901</v>
       </c>
       <c r="T10">
-        <v>0.05977649998976872</v>
+        <v>0.075370703062819</v>
       </c>
     </row>
   </sheetData>
